--- a/Data Input Sheets/Item Coding Sheet.xlsx
+++ b/Data Input Sheets/Item Coding Sheet.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df1a1f2124126429/Documents/GitHub/pokemon_game/Data Input Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="162" documentId="727136AF86F4B92E77622AE2E8E2F631517BCF87" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{8A9830D5-CAB4-45BA-9E50-499579916954}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{E379D4B7-D9F7-4C63-B809-201A2AE30200}"/>
   </bookViews>
@@ -23,10 +24,452 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Possible Code</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>LEGEND DETECTOR</t>
+  </si>
+  <si>
+    <t>FIGHTERS MASK</t>
+  </si>
+  <si>
+    <t>JAW FOSSIL</t>
+  </si>
+  <si>
+    <t>LUMINOUS MOSS</t>
+  </si>
+  <si>
+    <t>LUMIOSE GALETTE</t>
+  </si>
+  <si>
+    <t>MEGA RING</t>
+  </si>
+  <si>
+    <t>PIXIE PLATE</t>
+  </si>
+  <si>
+    <t>SACHET</t>
+  </si>
+  <si>
+    <t>SAFTEY GOGGLES</t>
+  </si>
+  <si>
+    <t>SAIL FOSSIL</t>
+  </si>
+  <si>
+    <t>SNOW BALL</t>
+  </si>
+  <si>
+    <t>STRANGE SOUVENIR</t>
+  </si>
+  <si>
+    <t>WEAKNESS POLICY</t>
+  </si>
+  <si>
+    <t>WHIPPED DREAM</t>
+  </si>
+  <si>
+    <t>BEAST BALL</t>
+  </si>
+  <si>
+    <t>ELECTRIC SEED</t>
+  </si>
+  <si>
+    <t>GRASSY SEED</t>
+  </si>
+  <si>
+    <t>MISTY SEED</t>
+  </si>
+  <si>
+    <t>MOON FLUTE</t>
+  </si>
+  <si>
+    <t>PINK NECTAR</t>
+  </si>
+  <si>
+    <t>PROTECTIVE PADS</t>
+  </si>
+  <si>
+    <t>PSYCHIC SEEDS</t>
+  </si>
+  <si>
+    <t>PURPLE NECTAR</t>
+  </si>
+  <si>
+    <t>RED NECTAR</t>
+  </si>
+  <si>
+    <t>SUN FLUTE</t>
+  </si>
+  <si>
+    <t>TERRAIN EXTENDER</t>
+  </si>
+  <si>
+    <t>YELLOW NECTAR</t>
+  </si>
+  <si>
+    <t>ZYGARDE CUBE</t>
+  </si>
+  <si>
+    <t>VENUSAURITE</t>
+  </si>
+  <si>
+    <t>BLASTOISEINITE</t>
+  </si>
+  <si>
+    <t>ALAKAZITE</t>
+  </si>
+  <si>
+    <t>GENGARITE</t>
+  </si>
+  <si>
+    <t>KANGASKHANITE</t>
+  </si>
+  <si>
+    <t>GYARADOSITE</t>
+  </si>
+  <si>
+    <t>AERODACTYLITE</t>
+  </si>
+  <si>
+    <t>AMPHAROSITE</t>
+  </si>
+  <si>
+    <t>SCIZORITE</t>
+  </si>
+  <si>
+    <t>BLAZIKENITE</t>
+  </si>
+  <si>
+    <t>GARDEVOIRITE</t>
+  </si>
+  <si>
+    <t>MAWILITE</t>
+  </si>
+  <si>
+    <t>MEDICHAMITE</t>
+  </si>
+  <si>
+    <t>BANETITE</t>
+  </si>
+  <si>
+    <t>ABSOLITE</t>
+  </si>
+  <si>
+    <t>GARCHOMPITE</t>
+  </si>
+  <si>
+    <t>LUCARIONITE</t>
+  </si>
+  <si>
+    <t>ABOMASITE</t>
+  </si>
+  <si>
+    <t>CHARIZARDITEX</t>
+  </si>
+  <si>
+    <t>PINSIRITE</t>
+  </si>
+  <si>
+    <t>MEWTWONITEX</t>
+  </si>
+  <si>
+    <t>TYRANITARITE</t>
+  </si>
+  <si>
+    <t>MANECTRICTITE</t>
+  </si>
+  <si>
+    <t>CHARIZARDITEY</t>
+  </si>
+  <si>
+    <t>MEWTWONITEY</t>
+  </si>
+  <si>
+    <t>HERACRONITE</t>
+  </si>
+  <si>
+    <t>HOUNDOOMITE</t>
+  </si>
+  <si>
+    <t>AGGRONITE</t>
+  </si>
+  <si>
+    <t>BEEDRILLITE</t>
+  </si>
+  <si>
+    <t>PIDGEOTITE</t>
+  </si>
+  <si>
+    <t>SLOWBRONITE</t>
+  </si>
+  <si>
+    <t>STEELIXITE</t>
+  </si>
+  <si>
+    <t>SCEPTILITE</t>
+  </si>
+  <si>
+    <t>SWAMPERTITE</t>
+  </si>
+  <si>
+    <t>SABLENITE</t>
+  </si>
+  <si>
+    <t>SHARPEDONITE</t>
+  </si>
+  <si>
+    <t>CAMERUPTITE</t>
+  </si>
+  <si>
+    <t>ALTARIANITE</t>
+  </si>
+  <si>
+    <t>GLALITE</t>
+  </si>
+  <si>
+    <t>SALAMENCITE</t>
+  </si>
+  <si>
+    <t>METAGOSSITE</t>
+  </si>
+  <si>
+    <t>LATIASITE</t>
+  </si>
+  <si>
+    <t>LATIOSITE</t>
+  </si>
+  <si>
+    <t>LOPUNNITE</t>
+  </si>
+  <si>
+    <t>GALLADITE</t>
+  </si>
+  <si>
+    <t>AUDINITE</t>
+  </si>
+  <si>
+    <t>DIANCITE</t>
+  </si>
+  <si>
+    <t>FACTORKEY</t>
+  </si>
+  <si>
+    <t>KEYSTONE</t>
+  </si>
+  <si>
+    <t>ORANGEPASS</t>
+  </si>
+  <si>
+    <t>SEVIIPASS</t>
+  </si>
+  <si>
+    <t>FERRYPASS</t>
+  </si>
+  <si>
+    <t>CALLTOSEA</t>
+  </si>
+  <si>
+    <t>BIRTHPASS</t>
+  </si>
+  <si>
+    <t>DNAPASS</t>
+  </si>
+  <si>
+    <t>RADIOTOWERKEY</t>
+  </si>
+  <si>
+    <t>FREEZERIZER</t>
+  </si>
+  <si>
+    <t>STABGLOVE</t>
+  </si>
+  <si>
+    <t>DREAMBALL</t>
+  </si>
+  <si>
+    <t>PARKBALL</t>
+  </si>
+  <si>
+    <t>GSBALL</t>
+  </si>
+  <si>
+    <t>EONTICKET</t>
+  </si>
+  <si>
+    <t>LIBERTYTICKET</t>
+  </si>
+  <si>
+    <t>LUNARWING</t>
+  </si>
+  <si>
+    <t>MAGMASTONE</t>
+  </si>
+  <si>
+    <t>WATERMEMORY</t>
+  </si>
+  <si>
+    <t>STEELMEMORY</t>
+  </si>
+  <si>
+    <t>ROCKMEMORY</t>
+  </si>
+  <si>
+    <t>PSYCHICMEMORY</t>
+  </si>
+  <si>
+    <t>POISONMEMORY</t>
+  </si>
+  <si>
+    <t>ICEMEMORY</t>
+  </si>
+  <si>
+    <t>FAIRYGEM</t>
+  </si>
+  <si>
+    <t>GROUNDMEMORY</t>
+  </si>
+  <si>
+    <t>GRASSMEMORY</t>
+  </si>
+  <si>
+    <t>GHOSTMEMORY</t>
+  </si>
+  <si>
+    <t>FLYINGMEMORY</t>
+  </si>
+  <si>
+    <t>FIREMEMORY</t>
+  </si>
+  <si>
+    <t>FIGHTINGMEMORY</t>
+  </si>
+  <si>
+    <t>FAIRYMEMORY</t>
+  </si>
+  <si>
+    <t>ELECTRICMEMORY</t>
+  </si>
+  <si>
+    <t>DRAGONMEMORY</t>
+  </si>
+  <si>
+    <t>DARKMEMORY</t>
+  </si>
+  <si>
+    <t>BUGMEMORY</t>
+  </si>
+  <si>
+    <t>DRAGONFLUTE</t>
+  </si>
+  <si>
+    <t>PRISONBOTTLE</t>
+  </si>
+  <si>
+    <t>RAINBOWING</t>
+  </si>
+  <si>
+    <t>SILVERWING</t>
+  </si>
+  <si>
+    <t>TIDALBELL</t>
+  </si>
+  <si>
+    <t>METEORITE</t>
+  </si>
+  <si>
+    <t>REDORB</t>
+  </si>
+  <si>
+    <t>BLUEORB</t>
+  </si>
+  <si>
+    <t>SHALOURSABLE</t>
+  </si>
+  <si>
+    <t>BIGMALASADA</t>
+  </si>
+  <si>
+    <t>AZUREFLUTE</t>
+  </si>
+  <si>
+    <t>AURORATICKET</t>
+  </si>
+  <si>
+    <t>CASTELIACONE</t>
+  </si>
+  <si>
+    <t>ETERNALBLOOM</t>
+  </si>
+  <si>
+    <t>ICESTONE</t>
+  </si>
+  <si>
+    <t>CHARIZARDITEZ</t>
+  </si>
+  <si>
+    <t>FLYGONITE</t>
+  </si>
+  <si>
+    <t>SWANNITE</t>
+  </si>
+  <si>
+    <t>EMOLGITE</t>
+  </si>
+  <si>
+    <t>HAWLUCHITE</t>
+  </si>
+  <si>
+    <t>NOIVERNITE</t>
+  </si>
+  <si>
+    <t>BELLOSITE</t>
+  </si>
+  <si>
+    <t>GRANBULLITE</t>
+  </si>
+  <si>
+    <t>URSARITE</t>
+  </si>
+  <si>
+    <t>ULTRAFLUTE</t>
+  </si>
+  <si>
+    <t>GOKRUNCHITE</t>
+  </si>
+  <si>
+    <t>DARKARIOTE</t>
+  </si>
+  <si>
+    <t>TYRANITURNITE</t>
+  </si>
+  <si>
+    <t>SPRITE??</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,8 +497,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,12 +814,1186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BC0ED8-3B7F-4B10-AB0E-0F99C06E8A03}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>526</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>527</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>528</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>529</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>530</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>531</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>532</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>533</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>534</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>535</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>536</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>537</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>538</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>539</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>540</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>541</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>542</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>543</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>544</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>555</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>556</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>557</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>558</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>559</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>560</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>561</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>562</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>563</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>564</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>565</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>566</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>567</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>568</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>569</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>570</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>571</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>572</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>573</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>574</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>575</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>576</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>577</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>578</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>579</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>580</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>581</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>582</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>583</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>584</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>585</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>586</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>587</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>588</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>589</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>590</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>591</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>592</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>593</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>594</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>595</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>596</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>597</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>598</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>599</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>600</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>601</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>602</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>603</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>604</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>605</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>606</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>607</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>608</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>609</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>610</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>611</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>612</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>613</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>614</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>615</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>616</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>617</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>618</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>619</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>620</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>621</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>622</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>623</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>624</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>625</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>626</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>627</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>628</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>629</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>630</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>631</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>632</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>633</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>634</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>635</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>636</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>637</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>638</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>639</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>640</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>641</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>642</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>643</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>644</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>645</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>646</v>
+      </c>
+      <c r="B112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>647</v>
+      </c>
+      <c r="B113" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>648</v>
+      </c>
+      <c r="B114" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>649</v>
+      </c>
+      <c r="B115" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>650</v>
+      </c>
+      <c r="B116" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>651</v>
+      </c>
+      <c r="B117" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>652</v>
+      </c>
+      <c r="B118" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>653</v>
+      </c>
+      <c r="B119" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>654</v>
+      </c>
+      <c r="B120" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>655</v>
+      </c>
+      <c r="B121" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>656</v>
+      </c>
+      <c r="B122" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>657</v>
+      </c>
+      <c r="B123" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>658</v>
+      </c>
+      <c r="B124" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>659</v>
+      </c>
+      <c r="B125" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>660</v>
+      </c>
+      <c r="B126" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>661</v>
+      </c>
+      <c r="B127" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>662</v>
+      </c>
+      <c r="B128" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>663</v>
+      </c>
+      <c r="B129" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>664</v>
+      </c>
+      <c r="B130" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>665</v>
+      </c>
+      <c r="B131" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>666</v>
+      </c>
+      <c r="B132" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>667</v>
+      </c>
+      <c r="B133" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>668</v>
+      </c>
+      <c r="B134" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>669</v>
+      </c>
+      <c r="B135" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>670</v>
+      </c>
+      <c r="B136" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>671</v>
+      </c>
+      <c r="B137" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>672</v>
+      </c>
+      <c r="B138" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>673</v>
+      </c>
+      <c r="B139" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>674</v>
+      </c>
+      <c r="B140" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>682</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data Input Sheets/Item Coding Sheet.xlsx
+++ b/Data Input Sheets/Item Coding Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="727136AF86F4B92E77622AE2E8E2F631517BCF87" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{8A9830D5-CAB4-45BA-9E50-499579916954}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="727136AF86F4B92E77622AE2E8E2F631517BCF87" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{492621B3-DBE2-49BD-9E10-C73EB8D0418C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{E379D4B7-D9F7-4C63-B809-201A2AE30200}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="145">
   <si>
     <t>Item Name</t>
   </si>
@@ -454,6 +454,12 @@
   </si>
   <si>
     <t>SPRITE??</t>
+  </si>
+  <si>
+    <t>Resized Sprite?</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -814,19 +820,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BC0ED8-3B7F-4B10-AB0E-0F99C06E8A03}">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D136" sqref="D3:D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -839,1088 +846,1496 @@
       <c r="D1" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>526</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>527</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>528</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>529</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>530</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>531</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>532</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>533</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>534</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>535</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>536</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>537</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>538</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>539</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>540</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>541</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>542</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>543</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>544</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>555</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>556</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>557</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>558</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>559</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>560</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>561</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>562</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>563</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>564</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>565</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>566</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>567</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>568</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>569</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>570</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>571</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>572</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>573</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>574</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>575</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>576</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>577</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>578</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>579</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>580</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>581</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>582</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>583</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>584</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>585</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>586</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>587</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>588</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>589</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>590</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>591</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>592</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>593</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>594</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>595</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>596</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>597</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>598</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>599</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>600</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>601</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>602</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>603</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>604</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>605</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>606</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>607</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>608</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>609</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>610</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>611</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>612</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>613</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>614</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>615</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>616</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>617</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>618</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>619</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>620</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>621</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>622</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>623</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>624</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>625</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>626</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>627</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>628</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>629</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>630</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>631</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>632</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>633</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>634</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>635</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>636</v>
       </c>
       <c r="B102" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>637</v>
       </c>
       <c r="B103" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>638</v>
       </c>
       <c r="B104" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>639</v>
       </c>
       <c r="B105" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>640</v>
       </c>
       <c r="B106" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>641</v>
       </c>
       <c r="B107" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>642</v>
       </c>
       <c r="B108" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>643</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>644</v>
       </c>
       <c r="B110" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>645</v>
       </c>
       <c r="B111" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>646</v>
       </c>
       <c r="B112" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>647</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>648</v>
       </c>
       <c r="B114" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>649</v>
       </c>
       <c r="B115" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>650</v>
       </c>
       <c r="B116" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>651</v>
       </c>
       <c r="B117" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>652</v>
       </c>
       <c r="B118" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>653</v>
       </c>
       <c r="B119" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>654</v>
       </c>
       <c r="B120" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>655</v>
       </c>
       <c r="B121" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>656</v>
       </c>
       <c r="B122" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>657</v>
       </c>
       <c r="B123" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>658</v>
       </c>
       <c r="B124" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>659</v>
       </c>
       <c r="B125" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>660</v>
       </c>
       <c r="B126" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>661</v>
       </c>
       <c r="B127" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>662</v>
       </c>
       <c r="B128" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>663</v>
       </c>
       <c r="B129" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>664</v>
       </c>
       <c r="B130" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>665</v>
       </c>
       <c r="B131" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>666</v>
       </c>
       <c r="B132" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>667</v>
       </c>
       <c r="B133" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>668</v>
       </c>
       <c r="B134" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>669</v>
       </c>
       <c r="B135" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>670</v>
       </c>
       <c r="B136" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>671</v>
       </c>
@@ -1928,7 +2343,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>672</v>
       </c>
@@ -1936,7 +2351,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>673</v>
       </c>
@@ -1944,7 +2359,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>674</v>
       </c>
@@ -1952,22 +2367,22 @@
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>675</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>676</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>677</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>678</v>
       </c>

--- a/Data Input Sheets/Item Coding Sheet.xlsx
+++ b/Data Input Sheets/Item Coding Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="727136AF86F4B92E77622AE2E8E2F631517BCF87" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{492621B3-DBE2-49BD-9E10-C73EB8D0418C}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="727136AF86F4B92E77622AE2E8E2F631517BCF87" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{997344EE-E6C5-4DD9-800E-0929B52705E6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{E379D4B7-D9F7-4C63-B809-201A2AE30200}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="147">
   <si>
     <t>Item Name</t>
   </si>
@@ -460,6 +460,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>DIVESALAMENCITE</t>
+  </si>
+  <si>
+    <t>THUNDERALTARITE</t>
   </si>
 </sst>
 </file>
@@ -823,7 +829,7 @@
   <dimension ref="A1:E148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D136" sqref="D3:D136"/>
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2371,10 +2377,16 @@
       <c r="A141">
         <v>675</v>
       </c>
+      <c r="B141" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>676</v>
+      </c>
+      <c r="B142" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">

--- a/Data Input Sheets/Item Coding Sheet.xlsx
+++ b/Data Input Sheets/Item Coding Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="727136AF86F4B92E77622AE2E8E2F631517BCF87" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{997344EE-E6C5-4DD9-800E-0929B52705E6}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="727136AF86F4B92E77622AE2E8E2F631517BCF87" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{DAB07C03-2A85-40FF-8B08-DAE8446A60AD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{E379D4B7-D9F7-4C63-B809-201A2AE30200}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="148">
   <si>
     <t>Item Name</t>
   </si>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t>THUNDERALTARITE</t>
+  </si>
+  <si>
+    <t>INSANEPOWDER</t>
   </si>
 </sst>
 </file>
@@ -828,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BC0ED8-3B7F-4B10-AB0E-0F99C06E8A03}">
   <dimension ref="A1:E148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,6 +2396,9 @@
       <c r="A143">
         <v>677</v>
       </c>
+      <c r="B143" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">

--- a/Data Input Sheets/Item Coding Sheet.xlsx
+++ b/Data Input Sheets/Item Coding Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="727136AF86F4B92E77622AE2E8E2F631517BCF87" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{DAB07C03-2A85-40FF-8B08-DAE8446A60AD}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="727136AF86F4B92E77622AE2E8E2F631517BCF87" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{55E6AD34-A3AD-4F2A-8F07-6E5D2790A12C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{E379D4B7-D9F7-4C63-B809-201A2AE30200}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="158">
   <si>
     <t>Item Name</t>
   </si>
@@ -469,6 +469,36 @@
   </si>
   <si>
     <t>INSANEPOWDER</t>
+  </si>
+  <si>
+    <t>DAZZLINGWING</t>
+  </si>
+  <si>
+    <t>ARCANITE</t>
+  </si>
+  <si>
+    <t>STARMITE</t>
+  </si>
+  <si>
+    <t>LILLIGANTITE</t>
+  </si>
+  <si>
+    <t>FLYGONITEH</t>
+  </si>
+  <si>
+    <t>TYRANITE</t>
+  </si>
+  <si>
+    <t>FROSSLASSITE</t>
+  </si>
+  <si>
+    <t>RELICBALL</t>
+  </si>
+  <si>
+    <t>SPACIALORE</t>
+  </si>
+  <si>
+    <t>TEMPORALORE</t>
   </si>
 </sst>
 </file>
@@ -829,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BC0ED8-3B7F-4B10-AB0E-0F99C06E8A03}">
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2404,25 +2434,80 @@
       <c r="A144">
         <v>678</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>679</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>680</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>681</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>682</v>
+      </c>
+      <c r="B148" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>683</v>
+      </c>
+      <c r="B149" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>684</v>
+      </c>
+      <c r="B150" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>685</v>
+      </c>
+      <c r="B151" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>686</v>
+      </c>
+      <c r="B152" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>687</v>
+      </c>
+      <c r="B153" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
